--- a/프로젝트결론/train_kospi90_kosdaq500/하락검증목록.xlsx
+++ b/프로젝트결론/train_kospi90_kosdaq500/하락검증목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\programing\Stock-Prediction-Project\Stock-Prediction-Project\프로젝트결론\train_kospi90_kosdaq500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC788A1E-F142-436B-8E27-7AEF4EDB09BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C874B39-E389-425A-83AF-58AC8E957970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="-10060" windowWidth="14400" windowHeight="7810" xr2:uid="{67761699-65A9-42E6-8F54-1AE9555C168D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>종목명</t>
   </si>
@@ -420,6 +420,26 @@
   </si>
   <si>
     <t>동양에스텍</t>
+  </si>
+  <si>
+    <t>SNT모티브</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼정펄프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코람코더원리츠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한농화성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이프시맨틱스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -488,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +520,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E32983-E9BA-4F29-95A4-D6B19092A342}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1867,6 +1890,46 @@
         <v>45037</v>
       </c>
     </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="4">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="4">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="4">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="4">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="4">
+        <v>45148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
